--- a/QAManualЗаписки.xlsx
+++ b/QAManualЗаписки.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georgi Kirev\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georgi Kirev\Desktop\IT All\QualityAssurance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F723EF4-A3FF-4AD4-B4C1-C78A17FB4CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB5BCD3-76EF-48E4-BDEA-B49C1B5E4F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>SDS</t>
   </si>
   <si>
-    <t>разглежда документацията на дисайна идентифицира тестови сценарии да подготви тестова стратегия която е съобразена с анализа и изискванията на клиента</t>
-  </si>
-  <si>
     <t>Design</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>Това са тестване на няколко Унит Теста примерно регистрация на акаунт като въведеш данните дали информацията отива където трябва или пък като отиде информацията където трябва дали връща правилната информация примерно ако са верни данните дали казва ,че е успешна регистрация</t>
   </si>
   <si>
-    <t>Тестване на самия сайт или игра дали всяка опция която е възможна работа примерно да направим нов акаунт да добавим текст или да го изтрием и т.н.</t>
-  </si>
-  <si>
     <t>Шлифоването на грубите детайли да се изгладят малки детайли в цветовете или нещо ако е намерено което не работи или друго</t>
   </si>
   <si>
@@ -163,6 +157,12 @@
   </si>
   <si>
     <t>Безопасност и скорост се тества най-вече</t>
+  </si>
+  <si>
+    <t>разглежда документацията на дизайна идентифицира тестови сценарии да подготви тестова стратегия която е съобразена с анализа и изискванията на клиента</t>
+  </si>
+  <si>
+    <t>Тестване на самия сайт или игра дали всяка опция която е възможна работи.Примерно да направим нов акаунт да добавим текст или да го изтрием и т.н.</t>
   </si>
 </sst>
 </file>
@@ -491,9 +491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -541,142 +539,142 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/QAManualЗаписки.xlsx
+++ b/QAManualЗаписки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georgi Kirev\Desktop\IT All\QualityAssurance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB5BCD3-76EF-48E4-BDEA-B49C1B5E4F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB067901-247A-4F22-95EF-3708465747E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="118">
   <si>
     <t>QA</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Unit Testin</t>
   </si>
   <si>
-    <t>Тества малки функцуоналности като например една if проверка и се задават множесто тестове</t>
-  </si>
-  <si>
     <t>Юнит тестване</t>
   </si>
   <si>
@@ -144,32 +141,278 @@
     <t>Приемно тестване</t>
   </si>
   <si>
-    <t>Това са тестване на няколко Унит Теста примерно регистрация на акаунт като въведеш данните дали информацията отива където трябва или пък като отиде информацията където трябва дали връща правилната информация примерно ако са верни данните дали казва ,че е успешна регистрация</t>
-  </si>
-  <si>
     <t>Шлифоването на грубите детайли да се изгладят малки детайли в цветовете или нещо ако е намерено което не работи или друго</t>
   </si>
   <si>
     <t>Нефункционално тестване</t>
   </si>
   <si>
-    <t>Тества се примерно WinRar колко файла могат и не могат да се архивират или разархивират , дали може да сложим парола за да може само човека който искаме да я напише и дали се отключва архива и т.н.</t>
-  </si>
-  <si>
     <t>Безопасност и скорост се тества най-вече</t>
   </si>
   <si>
     <t>разглежда документацията на дизайна идентифицира тестови сценарии да подготви тестова стратегия която е съобразена с анализа и изискванията на клиента</t>
   </si>
   <si>
-    <t>Тестване на самия сайт или игра дали всяка опция която е възможна работи.Примерно да направим нов акаунт да добавим текст или да го изтрием и т.н.</t>
+    <t>Тества се примерно WinRar колко файла могат и не могат да се архивират или разархивират , дали може да сложим парола за да може само човека който искаме да я напише и дали се отключва архива и т.н. ПРОВЕРЯВА колко бързо работи системата, колко човека обслужва на веднъж, колко сигурна е тя , може ли да се отвори от други операционни системи.</t>
+  </si>
+  <si>
+    <t>Тества малки функцуоналности като например една if проверка и се задават множесто тестове (пример натискане бутон "прибави в количка" дали извиква правилната функция (тоест прибавя в количката) ако те прати в Логин страницата или другаде има проблем)</t>
+  </si>
+  <si>
+    <t>Това са тестване на няколко Унит Теста примерно регистрация на акаунт като въведеш данните дали информацията отива където трябва или пък като отиде информацията където трябва дали връща правилната информация примерно ако са верни данните дали казва ако данните са грешни дали казва ,че е неуспешна регистрация дали те препраща в правилната страница при успешната регистрация и т.н.</t>
+  </si>
+  <si>
+    <t>Тестване на самия сайт или игра дали всяка опция която е възможна работи.Примерно да направим нов акаунт да добавим текст или да го изтрием , дали цветовете на бутоните и видът им отговарят на това което е по-спецификация и т.н.</t>
+  </si>
+  <si>
+    <t>Тест Кейс</t>
+  </si>
+  <si>
+    <t>МНОГО ВАЖНО!!!</t>
+  </si>
+  <si>
+    <t>BRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бизнес изисквания </t>
+  </si>
+  <si>
+    <t>Системни изисквания</t>
+  </si>
+  <si>
+    <t>FRS</t>
+  </si>
+  <si>
+    <t>Функционални изисквания</t>
+  </si>
+  <si>
+    <t>(business requirement specification)(документи от анализаторите за какво трябва да прави даден софтуер)</t>
+  </si>
+  <si>
+    <t>(Software Requirements Specification)(документация при която се гледат какви са изискванията за системата от клиента)</t>
+  </si>
+  <si>
+    <t>(Functional Requirements Specification)(Какви функции да има софтуера)</t>
+  </si>
+  <si>
+    <t>Тест Сценарии</t>
+  </si>
+  <si>
+    <t>Документ който се изготвя.Как да се тества !!! Пример тестване на логин страница. Започва се и се въвеждат валидни данни. След това се тества с невалидни данни след това се тества без данни и т.н.</t>
+  </si>
+  <si>
+    <t>Документ който се изготвя. Фокусира се върхо какво да се тества а не как да се тества !!! Пример 1. Тест на логин страницата 2. Тестване на страницата за покупки 3. Тестване на Административният акаунт</t>
+  </si>
+  <si>
+    <t>TMS</t>
+  </si>
+  <si>
+    <t>(test management system) Тест мениджмънт системи могат да бъдат много софтуери ето примери :Testrail ; Xray</t>
+  </si>
+  <si>
+    <t>Software for Testing management</t>
+  </si>
+  <si>
+    <t>Разработване на софтуер</t>
+  </si>
+  <si>
+    <t>по-долу е описано по отделно НО:</t>
+  </si>
+  <si>
+    <t>Фазите на разработването на софтуер са:Определяне на изискванията (Анализ), Дизайн , Разработка , Тестване , Внедряване , Поддръжка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Седемте принципа на тестването </t>
+  </si>
+  <si>
+    <t>принцип 1</t>
+  </si>
+  <si>
+    <t>принцип 2</t>
+  </si>
+  <si>
+    <t>принцип 3</t>
+  </si>
+  <si>
+    <t>принцип 4</t>
+  </si>
+  <si>
+    <t>принцип 5</t>
+  </si>
+  <si>
+    <t>принцип 6</t>
+  </si>
+  <si>
+    <t>принцип 7</t>
+  </si>
+  <si>
+    <t>Ранно тестване. Early Testing.  Колкото по-рано се намерят фундаментални бъгове толкова по-добре защото ако се намерят проблеми на късен етап ще е по-скъпо да се отстранят.</t>
+  </si>
+  <si>
+    <t>Изчерпателното тестване е невъзможно.Exhaustive testing is impossible. Няма как да се тестват всички възможни ситуации и да се отстранят всички бъгове поради тази причина се прави отценка на риска и се тестват важните неща.(колкото се може повече неща спрямо контекства)</t>
+  </si>
+  <si>
+    <t>Тестването може да покаже наличието на бъгове. Testing show the presence of defects.Щом тестваш ще намериш дефект.</t>
+  </si>
+  <si>
+    <t>Струпване на дефекти. Defect clustering. Дефектите се струпват на едно место там където се намери един бъг е 80% вериятност да има и втори бъг там.</t>
+  </si>
+  <si>
+    <t>Парадокса на пестицидите.Pesticide paradox. С времето повтарянето на едни и същи тестове с времето откриват все по-малко грешки.Трябва да се преглеждат и подобряват редовно тестовете.Понеже с времето разработчиците изчистват старите бъгове и метода скойто сме ги намерили вече няма да е ефективен но това не означава ,че няма бъгове.</t>
+  </si>
+  <si>
+    <t>Тестването зависи от контекста.Testing is context dependent. Различните приложения, сайтове и игри искат различни подходи за тестване.Тестването на симулатор на отглеждане на разстения ще се тества по-различен начин от състезателен симулатор.</t>
+  </si>
+  <si>
+    <t>Заблудата за липса от дефекти.Absence-of-Errors Fallacy. Това ,че даден софтуер няма бъгове не означава ,че е добър. Ако вземем калкулатор който смята много точно но няма опция да умножава то той няма да е много популярен понеже му липсва фундаментално важно нещо (част от комплекта) за да е полезен за ежедневна употреба от потребителите.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нива на типове тествания </t>
+  </si>
+  <si>
+    <t>Включва различни аспекти</t>
+  </si>
+  <si>
+    <t>Функционалност - Прави ли софтуера това което се очаква;   Производителност - Колко бързо работи софтуера?;  Сигурност - Защитен ли е софтуера?; Употреба - Лесно ли се използва софтуера?</t>
+  </si>
+  <si>
+    <t>Фокус върху специфични области</t>
+  </si>
+  <si>
+    <t>Проверка на основни функции на софтуера ; Отценка на работата и стабилността на софтуера ;</t>
+  </si>
+  <si>
+    <t>Алфа тестване</t>
+  </si>
+  <si>
+    <t>Фокус и цел</t>
+  </si>
+  <si>
+    <t>Вътрешно тестване от служители на фирмата с цел намиране и отстраняване на бъгове ПРЕДИ публичното пускане на софтуера</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бета тестване </t>
+  </si>
+  <si>
+    <t>Външно тестване от реалните потребители събиране на информация и отстраняване на бъгове , неудобства и проблеми.</t>
+  </si>
+  <si>
+    <t>Функционално тестване</t>
+  </si>
+  <si>
+    <t>Дали работи и изглежда по-спецификация примерно бутоните работят правилно ,правилни цветове , как го прави.</t>
+  </si>
+  <si>
+    <t>Жизнен цикъл на дефектите</t>
+  </si>
+  <si>
+    <t>Докладите за дефекти (bug reports) се управляват чрез жизнен цикъл (lifecycle)</t>
+  </si>
+  <si>
+    <t>Както следва: New , Assigned , Open , Fixed , Pending retest, Retest , Verified , Closed ; Като е много важно ,че когато е на стъпка Open човека който е Assigned (определен в софтуера да отстрани този бъг) може да предприеме съответните действия: Duplicate ако този бъг вече е намерен от друг колега по-рано и се доблира. Rejected ако този човек по някаква причина откаже да отстрани проблема примерно ,че не е в работата му или Deferred  (отложен) , Not a Bug или други специфично за фирмата неща.   Като последно сме на Retest се отваря отново този тест изпълняват се стъпките и ако е успешен се процедира нататък към това да бъде затворен ако обаче не е отстранен дефекта се връщаме на стъпка Assigned и казваме КУЛТУРНО на отговорния колега ,че този бъг не е отстранен.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanity </t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smoke </t>
+  </si>
+  <si>
+    <t>traceability</t>
+  </si>
+  <si>
+    <t>Sanity тестовете проверяват дали основните функции на приложението работят правилно след нова версия или промяна, фокусирайки се върху критичните функционалности.</t>
+  </si>
+  <si>
+    <r>
+      <t>Smoke тестовете</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> са повърхностни проверки на цялата система, за да се установи дали приложението изобщо може да се стартира и функционира базово.</t>
+    </r>
+  </si>
+  <si>
+    <t>Способността да се проследи връзката между изисквания, тестови случаи, дефекти и разработка.</t>
+  </si>
+  <si>
+    <t>Типични за QA дейности:</t>
+  </si>
+  <si>
+    <t>Проверка дали продуктът отговаря на изискванията.Оценка на риска.Идеи за подобряване на качеството на продуктите.Тест дизайн.Реализация на ръчни и автоматизирани тестове.Анализиране на резултатите от тестовете.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 основни QA роли </t>
+  </si>
+  <si>
+    <t>Длъжности:</t>
+  </si>
+  <si>
+    <t>Тест Анализатор (Test Analist) - занимава се със статично тестване на изискванията(Software requierments) , проверява за грешки в документацията,участва в планирането на тестовете. Тест дизайнер - въз основа на софтуерните изисквания разработва тест сценарии , тест кейсове и конфигурации необходими за тестването. Тест Изпълнител (Test Executor) - извършва планирани тестове , описва и намира намерените грешки и стъпките за тяхното възпроизвеждане. Тест Мениджър (Test Manager) - планира и наблюдава работата, свързана с тестването. В задълженията му влизат крайни срокове, графици, контролиране на изискванията към тестовете ,дефиниране на задачи ,комуникация със заинтересованите страни и т.н.</t>
+  </si>
+  <si>
+    <t>въпрос</t>
+  </si>
+  <si>
+    <t>Един тест сценарий съдържа множество: Тест Случаи</t>
+  </si>
+  <si>
+    <t>За кое ниво на тестване може да се приложи следното
+твърдение: "Тестването трябва да потвърди, че отделните
+компоненти работят заедно"?
+A. Интеграционно тестване (Integration testing)</t>
+  </si>
+  <si>
+    <t>Софтуерното тестване НЕ е начин : За намиране на всички дефекти</t>
+  </si>
+  <si>
+    <t>Процесът по разработване на софтуер включва:                                                                                                                                                                                                                              1. Дизайн
+2. Определяне на изисквания
+(анализ)
+3. Внедряване
+4. Поддръжка
+5. Разработка
+6. Тестване                                                      вярната подредба е : 2, 1, 5, 6, 3, 4</t>
+  </si>
+  <si>
+    <t>Кой от изброените по-долу списъци, съдържа само
+нефункционално тестване:
+A. Тестване на сигурността, тестване на надеждността, тестване на
+производителността</t>
+  </si>
+  <si>
+    <t>Едно от полетата на формуляр съдържа поле, което приема числови стойности в диапазона от 18 до 25. Кой тест ще бъде отрицателен?   17</t>
+  </si>
+  <si>
+    <t>Кое от следните изисквания подлежи на тестване : Времето за реакция (response time) трябва да бъде по-малко
+от една секунда при определено натоварване</t>
+  </si>
+  <si>
+    <t>Дейностите по тестване на софтуер трябва да започнат : Възможно най-рано</t>
+  </si>
+  <si>
+    <t>Системата за проследяване на грешки (Bug Tracking System): В нея се въвеждат и пазят докладваните, по софтуерни
+проекти, бъгове</t>
+  </si>
+  <si>
+    <t>Защо очакваните резултати трябва да бъдат определени
+преди изпълнението на тестове?                        За да се намали вероятността от неправилни резултати</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,13 +420,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -198,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -209,6 +472,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,9 +762,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -501,183 +776,551 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="1" t="s">
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>42</v>
       </c>
     </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/QAManualЗаписки.xlsx
+++ b/QAManualЗаписки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georgi Kirev\Desktop\IT All\QualityAssurance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB067901-247A-4F22-95EF-3708465747E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5E2C60-DF20-4B83-845F-C24FD8AE6207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="125">
   <si>
     <t>QA</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>Как да изглежда софтуера ,стратегия за разработка ,стратеги за тестване , доизглаждане на неясноти и т.н.</t>
-  </si>
-  <si>
-    <t>Също ниже да се каже и Development или разработка при което освен ,че се пише кода за софтуера се и тества поетапно</t>
   </si>
   <si>
     <t>По обстойно тестване , обратна връзка и последни отстранявания на дефекти преди издаването</t>
@@ -406,6 +403,30 @@
   <si>
     <t>Защо очакваните резултати трябва да бъдат определени
 преди изпълнението на тестове?                        За да се намали вероятността от неправилни резултати</t>
+  </si>
+  <si>
+    <t>Също може да се каже и Development или разработка при което освен ,че се пише кода за софтуера се и тества поетапно</t>
+  </si>
+  <si>
+    <t>Agile</t>
+  </si>
+  <si>
+    <t>Мотодология/Едология    Подход/Философия</t>
+  </si>
+  <si>
+    <t>Agile е методология за разработка на софтуер, която разделя процеса на малки итерации (спринтове, най-често по 2 седмици). В рамките на един спринт екипът разработва, тества и предоставя малка, но завършена част от продукта, която може да се използва. Agile позволява бърза реакция на промени и постоянно подобрение на продукта.(с Agile се работи на кратки итерации наречени спринтове между 1 и 4 седмици като най-често 2 седмици за 1 спринт като накрая на всеки спринт е характерно ,че вече има малка част но напълно работеща ,а НЕ частично написан код.)</t>
+  </si>
+  <si>
+    <t>Scrum</t>
+  </si>
+  <si>
+    <t>KanBan</t>
+  </si>
+  <si>
+    <t>Работи се на спринтове (обикновено 2 седмици), има ясни роли – Scrum Master - (човек който се грижи работатада върви без спънки ако има неясноти или проблеми той се заема с отстраняването им, разпределя работата , следи всеки да си върши работата), Product Owner - (Това може да е собстеника на продукта или лице представляващо бизнеса или собственика и кое е най-важно а екипът решава какда го направи) и екип. След всеки спринт се доставя завършена функционалност. Има ежедневни срещи (Daily Stand-up), планиране, демо и ретроспекция.</t>
+  </si>
+  <si>
+    <t>Няма фиксирани спринтове. Работи се с табло (колони „To Do – In Progress – Done“), като задачите се придвижват през тях. Основен фокус е непрекъснатият поток работа и ограничаване на броя задачи „в процес“.Важен принцип е WIP (Work In Progress) лимит – тоест да не се започват твърде много задачи наведнъж, за да няма претоварване. Пример: При Анализа и Дизайна на софтуера се прави голям списък от задачи "To Do" след започване на работа всеки започва и работи дан едно нещо като се следва правилата на WIP (дане се претоварва процеса) след като разработчик започне да работи над нещо премества съответната задача в графа In Progress и след като я завърши на Done тестерите могат да тестват тогава софтуера и ако намерят бъг или проблем според уговорката на студиото преместват тази задача в To Do , In Progress или някой друг лист създаден от тях в който описват проблема от там разработчик взема това отстранява проблема и отново го мести в Done.</t>
   </si>
 </sst>
 </file>
@@ -762,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,13 +799,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -815,79 +836,79 @@
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -909,7 +930,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -953,7 +974,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -964,7 +985,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -975,7 +996,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -986,7 +1007,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -995,21 +1016,21 @@
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1018,98 +1039,98 @@
     </row>
     <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1117,32 +1138,32 @@
         <v>6</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1151,35 +1172,35 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1188,135 +1209,162 @@
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="C42" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="C50" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="1" t="s">
+    </row>
+    <row r="51" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>112</v>
-      </c>
+    </row>
+    <row r="52" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="5"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C53" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C56" s="1" t="s">
+    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/QAManualЗаписки.xlsx
+++ b/QAManualЗаписки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georgi Kirev\Desktop\IT All\QualityAssurance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5E2C60-DF20-4B83-845F-C24FD8AE6207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CE030F-9BC5-464D-905F-7B9CB7358E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="263">
   <si>
     <t>QA</t>
   </si>
@@ -426,14 +426,433 @@
     <t>Работи се на спринтове (обикновено 2 седмици), има ясни роли – Scrum Master - (човек който се грижи работатада върви без спънки ако има неясноти или проблеми той се заема с отстраняването им, разпределя работата , следи всеки да си върши работата), Product Owner - (Това може да е собстеника на продукта или лице представляващо бизнеса или собственика и кое е най-важно а екипът решава какда го направи) и екип. След всеки спринт се доставя завършена функционалност. Има ежедневни срещи (Daily Stand-up), планиране, демо и ретроспекция.</t>
   </si>
   <si>
-    <t>Няма фиксирани спринтове. Работи се с табло (колони „To Do – In Progress – Done“), като задачите се придвижват през тях. Основен фокус е непрекъснатият поток работа и ограничаване на броя задачи „в процес“.Важен принцип е WIP (Work In Progress) лимит – тоест да не се започват твърде много задачи наведнъж, за да няма претоварване. Пример: При Анализа и Дизайна на софтуера се прави голям списък от задачи "To Do" след започване на работа всеки започва и работи дан едно нещо като се следва правилата на WIP (дане се претоварва процеса) след като разработчик започне да работи над нещо премества съответната задача в графа In Progress и след като я завърши на Done тестерите могат да тестват тогава софтуера и ако намерят бъг или проблем според уговорката на студиото преместват тази задача в To Do , In Progress или някой друг лист създаден от тях в който описват проблема от там разработчик взема това отстранява проблема и отново го мести в Done.</t>
+    <t>Няма фиксирани спринтове. Работи се с табло (колони „To Do – In Progress – Done“), като задачите се придвижват през тях. Основен фокус е непрекъснатият поток работа и ограничаване на броя задачи „в процес“.Важен принцип е WIP (Work In Progress) лимит – тоест да не се започват твърде много задачи наведнъж, за да няма претоварване. Пример: При Анализа и Дизайна на софтуера се прави голям списък от задачи "To Do" след започване на работа всеки започва и работи над едно нещо като се следва правилата на WIP (дане се претоварва процеса) след като разработчик започне да работи над нещо премества съответната задача в графа In Progress и след като я завърши на Done тестерите могат да тестват тогава софтуера и ако намерят бъг или проблем според уговорката на студиото преместват тази задача в To Do , In Progress или някой друг лист създаден от тях в който описват проблема от там разработчик взема това отстранява проблема и отново го мести в Done.</t>
+  </si>
+  <si>
+    <t>QA Fundamentals</t>
+  </si>
+  <si>
+    <t>device emulators</t>
+  </si>
+  <si>
+    <t>Много на брой са</t>
+  </si>
+  <si>
+    <t>Android Emulator - може да симулира андроидови устройства (Този емулатор за да се стратира трябва да се инсталира Android Studio което е програмата която емулира операционните системи като при Virtual Box) , Oracle Virtual Box - може да инсталира човек различни операционни системи като Kalli , Ubunto и много други, LD Player е друг емолатор , BlueStacks  както и много други.</t>
+  </si>
+  <si>
+    <t>device emulators online</t>
+  </si>
+  <si>
+    <t>Може горното да е и в интернет</t>
+  </si>
+  <si>
+    <t>BrouserStack - онлайн емулатор който може да симулира множество операционни системи и оборудване.Но се плащат обикновено.</t>
+  </si>
+  <si>
+    <t>cmd</t>
+  </si>
+  <si>
+    <t>Command Prompt</t>
+  </si>
+  <si>
+    <t>Старт Менюто и се пише cmd за да се пусне програмата и служи за команди директно на компютъра</t>
+  </si>
+  <si>
+    <t>cmd commands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">команди при cmd </t>
+  </si>
+  <si>
+    <t>dir - показва всички файлове/папки в съответната директория</t>
+  </si>
+  <si>
+    <t>ls</t>
+  </si>
+  <si>
+    <t>команди при линукс</t>
+  </si>
+  <si>
+    <t>ls - показва всички файлове/папки в съответната директория</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>cd - предвижване/влизане в папките примери: dc .. Тази команда ще те върне една стъпка назад . cd User ще влезеш в папка User или съответното име</t>
+  </si>
+  <si>
+    <t>cd - същото като при уиндоуския като ако напишеш cd /home ще те изпрати директно в папка home</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>pwd - (Print Working Directory) показва пътя на папките в които сме влезнали   пример : C:\Users\Georgi Kirev\Desktop\IT All         команда cd при уиндоус прави същото нещо</t>
+  </si>
+  <si>
+    <t>echo</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>cat - показва съдържанието на файла    пример: cat h1.txt (показва какво има записано в файла)</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>type - показва/принтира/пише съдържанието на файла    пример: cat h1.txt (показва какво има записано в файла)</t>
+  </si>
+  <si>
+    <t>PowerShell</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Пишем в старт mенюто Terminal</t>
+  </si>
+  <si>
+    <t>команда</t>
+  </si>
+  <si>
+    <t>cmd - ако напишем това показва коя версия е Comand Prompt</t>
+  </si>
+  <si>
+    <t>cls</t>
+  </si>
+  <si>
+    <t>cls - почиства терминала от командите които сме писали до момента (прави по-четимо всичко)</t>
+  </si>
+  <si>
+    <t>cls - почиства терминала от командите които сме писали до момента (прави по-четимо всичко) както в cmd-то</t>
+  </si>
+  <si>
+    <t>dir /a:h</t>
+  </si>
+  <si>
+    <t>dir /a:h - тази команда показва скритите файлове</t>
+  </si>
+  <si>
+    <t>команди при PowerShell</t>
+  </si>
+  <si>
+    <t>mkdir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mkdir - създава нова папка идва от make new directory (може да се направят и няколко папки на веднъж не е нужно да се пише командата няколко пъти ето и пример: ) mkdir NewFolder NewFolder2 </t>
+  </si>
+  <si>
+    <t>echo - записва текст във файл като ако го няма този файл се създава  пример: echo Hello World &gt; h1.txt  (Hello World - текста ,а h1.txt - файла) важно допълнение ако се използва същият файл и искаме да заменим текста с друг използваме знака &gt; ако обаче към съществуващият текс искаме да добавим още текст без да премахваме стария пишем този знак &gt;&gt; (или два пъти шифт + точката )</t>
+  </si>
+  <si>
+    <t>ping</t>
+  </si>
+  <si>
+    <t>ping - проверява дали даден сървър , компютър или сайт е достъпен през мрежата. Какво прави: Изпраща малки пакети данни така наречениет ICMP (Internet Control Masage Protocol) и чака отговор. Виждаме колко време отнема за отговор и дали има отговор. Ако добавим    -n 10 ще стане така ,че командата ще изпрати не 4 пакета както е по-дефоут а 10 пакета ако добавим друга цифра ще е съответният брой  пакети.При същата команда но с -t (ping -t) ще започне да изпраща и получава пакети докато не му кажем да спре.За да спрем командата натискаме Контрол + С .Ако към командата използваме малко L и стане ping -l 1000 google.com ще стане така ,че ще се изпратят 4 пакета по 1000 байта до сайта на гугъл и обратно важно е да се провери размера на байтовете които може да се изпрати понеже има лимит някъде над 65000 е лимита.</t>
+  </si>
+  <si>
+    <t>ipconfig</t>
+  </si>
+  <si>
+    <t>ipconfig - команда която показва настоящata конфигурация на компютъра и адаптерите към него (рутер). Ipconfig /all дава по-подробна информация за системата.</t>
+  </si>
+  <si>
+    <t>tasklist</t>
+  </si>
+  <si>
+    <t>tasklist - дава подробна информация за процесите които работят в момента това е като таск мениджъра.Ако добавим да стане tasklist /fi "pid eq 9360" ще даде конкретна информация за работещата програма с този номер 9360 тя се достъпва и този номер се сменя когато напиешм само tasklist и видим какви процеси излизат на втората колонка има едни номера завършващи с някакъв текст тип Console , Services ... този номер се взема от там</t>
+  </si>
+  <si>
+    <t>taskkill</t>
+  </si>
+  <si>
+    <t>taskkill - това е команда при която затваряме работещ процес еквивалента на End Task в Таск Мениджъра.Пише се taskkill /pid 9360     важно цифрите се гледат от тасклиста както е показано на горното табче или се пише името с разширението на таба примерно има пуснат калкулатор се пише след pid calculator.exe Може вместо командата pid да се използва /im и пак ще сработи</t>
+  </si>
+  <si>
+    <t>systeminfo</t>
+  </si>
+  <si>
+    <t>systeminfo - Показва подробна информация за това каква е системата Операционна система , конфигорация , Мемори и т.н.</t>
+  </si>
+  <si>
+    <t>docker run</t>
+  </si>
+  <si>
+    <t>команди при docker Линукс</t>
+  </si>
+  <si>
+    <t>docker run hello-world    това е команда спецялна да се провери дали dockera е конфигуриран добре и ако не е той сам си сваля каквото трябва от Докер хуба което е публичен "склад" за имиджи (шаблони) като контейнера (докера) е мястото където се инсталира имиджа</t>
+  </si>
+  <si>
+    <t>docker ps -a</t>
+  </si>
+  <si>
+    <t>docker ps -a     Тази команда показва всичките контейнери които са стартирани. Тоест може да са стартирани от 0 до много</t>
+  </si>
+  <si>
+    <t>За линукс Докер е много важно да знам Контрол + Шифт + С е комбинация за копиране а за постване е Контрол + Шифт + V</t>
+  </si>
+  <si>
+    <t>docker run -d -p 8080:80 nginx</t>
+  </si>
+  <si>
+    <t>docker run -d -p 8080:80 nginx  Тази команда се използва за стартиране на нов environment (стая/контейнер) в който командата накрая nginx е прокси сървър за http , https , smtp , pop3 и т.н. като -d идва от детачет контейнера работи във фонов режим тоест в бекграунда и ще спи докато не му кажеш да прави нещо -p означава дефиниция/пренасочване на портовете a 8080 това е порта на линукската машина която използваме в момента към :80  това е стандартният порт на nginx вътре във самият nginx . Важно да се отбележи след като се стартира в горният край на докера има надпис open port и там започва да го пише това 8080 за да проверим дали работи може да използваме горната команда или само командата docker ps без -а като -а се използва за да каже all или всички спящи неспящи работели някога спрени и т.н. контейнери</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker stop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker stop  е команда за спиране на работещ контейнер но е важно да се знае ,че ако има само 1 контейнер включен то той ще се спре но ако са повече от 1 контейнерите които работят трябва да се каже ID-to на контейнера а за да разберем какво е ID-to трябва командата docker ps и първото което пише там е ID-to на контейнера пример: docker stop fe8774082300 за да проверим дали е спрял контейнера този път задължително docker ps -a </t>
+  </si>
+  <si>
+    <t>docker rm</t>
+  </si>
+  <si>
+    <t>docker rm   Това е командата за премахване на контейнер.Като както по-горе трябва да се сложи ID-to на съответния контейнер</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>Какво е Docker</t>
+  </si>
+  <si>
+    <t>Контейнер</t>
+  </si>
+  <si>
+    <t>Какво е Контейнер в Docker</t>
+  </si>
+  <si>
+    <t>Контейнер е лека виртуална машина в която има: Нужните файлове за програмата , нейните зависимости (библиотеки) и конфигурации за програмата която инсталираш.Така програмата винаги работи еднакво независимо от кой компютър я стартираш.</t>
+  </si>
+  <si>
+    <t>Docker Playground</t>
+  </si>
+  <si>
+    <t>Какво е Docker Playground</t>
+  </si>
+  <si>
+    <t>Docker Playground е онлайн място ,където можеш да тестваш Docker команди, без да инсталираш нищо на компютара си. Той просто стартира един вируален Линукс компютър на браузара ти , където може да играеш с докер.</t>
+  </si>
+  <si>
+    <t>Докер е инструмент който позволява да стартираш програми в изолирана среда, наречена контейнер. Мисли за контейнера като малък компютър вътре в твоя компютър , който има само това, което му трябва ,за да работи програмата (без излишни неща). Може да се инсталира програмта Docker на компютъра и да се правят тестове много често на Selenium and Postman.Като по-този начин всичко е изолирано и има само съответната програма.</t>
+  </si>
+  <si>
+    <t>docker run -it --name my-container bash</t>
+  </si>
+  <si>
+    <t>docker run -it --name my-container bash (Инфрормация командата  - it е за: i се има предвид че е интерактив и ни позволява да въвеждаме информация в контейнера а пък t създава терминал така че да изглежда като нормална линукс конзола и накрая думичката bash е името на Имиджа който ще се стартира) Това е команда която стартира контейнер с Bash и благодарение на -it ще можем да интерактваме с него</t>
+  </si>
+  <si>
+    <t>curl -s https://api.zippopotam.us/bg/1000 | jq</t>
+  </si>
+  <si>
+    <t>curl -s https://api.zippopotam.us/bg/1000 | jq     ( curl командата е инструмент за изпращане на http заявки от терминала и получаване на отговор -s стои за silent или скрива всички ненужни данни и показва само резултата след което е сайта до който се изпраща заявката jq най-накрая ще форматира json файла който се получава от http заявката и ще го направи удобен и лесен за четене (без такзи команда всичко излиза на един ред едно след друго в един цвят и шрифт а с нея излиза четливо)</t>
+  </si>
+  <si>
+    <t>Линукс терминал</t>
+  </si>
+  <si>
+    <t>Линукс терминал и команди</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux Shell е команд промта на линукс който работи по-почти същият начин като уиндоуския command prompt но има малка разлика в командите </t>
+  </si>
+  <si>
+    <t>Linux command</t>
+  </si>
+  <si>
+    <t>ls - е команда при която показва в коят директория сме и какво има в нея същата команда като dir при уиндоус</t>
+  </si>
+  <si>
+    <t>cd - е командата както при уиндоус за предвижване напред и назад в папките cd .. За назад една папка а cd името на папката за да се влезе в нея</t>
+  </si>
+  <si>
+    <t>ls -l</t>
+  </si>
+  <si>
+    <t>ls - l   същата команда като горната но дава по-подробна информация от горната за файловете както и права кой има да я променя</t>
+  </si>
+  <si>
+    <t>ls -a</t>
+  </si>
+  <si>
+    <t>ls - a   тази команда показва всички файлове Включително скритите файлове в съответната папка</t>
+  </si>
+  <si>
+    <t>mkdir   е команда с помощта на която се прави нова папка пример: mkdir NewFolder</t>
+  </si>
+  <si>
+    <t>mkdir - p</t>
+  </si>
+  <si>
+    <t>mkdir - p    тази команда позволява да се изградят структури от папки или просто казано да се направят повече от 1 папка на веднъж но едната папка е вкарана в другата а не две заедно пример: mkdir - p demoFoulder/insideFoulder    по този начин създаваме папка с името demoFoulder и вътре в нея създаваме папката insideFoulder</t>
+  </si>
+  <si>
+    <t>touch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">touch   командата създава нов файл ако обаче има вече съществуващ просто го модифицира пример: touch text.txt </t>
+  </si>
+  <si>
+    <t>nano</t>
+  </si>
+  <si>
+    <t>nano  отваря файл за редактиране с нея може да отворим приер: nano text.txt     за да се излезе или да се правят команди вътре в командата се изписват комендите като за да се излезе се натиска Контрол + Х или за помощ Контрол + G и т.н.</t>
+  </si>
+  <si>
+    <t>sudo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudo (super user do) Или иначе казано изпълни като администратор. Дава пълни права за изпълнението на команди.В линукс не може да се инсталират програми или променят системни настройки за това се използва тази команда. </t>
+  </si>
+  <si>
+    <t>apt-get</t>
+  </si>
+  <si>
+    <t>apt-get това е мениджъра на пакети в Линукс с тази команда може да инсталираме , обновяваме софтуер и т.н. като тази команда може да е под друга форма при някои Линукс дистрибуции (може да е различна за някои Линукси)</t>
+  </si>
+  <si>
+    <t>sudo apt-get update</t>
+  </si>
+  <si>
+    <t>sudo apt-get update тази команда казва на Линукс да провери и да се ъпдейтне ако има нужда на всички файлове и програми конкретно за убунто като може да е същото и при други дистрибуции</t>
+  </si>
+  <si>
+    <t>sudo apt-get install python3 с тази команда може да се инсталира ново приложение в случаят приложението е python3 като на мястото на това е името на съответната програма</t>
+  </si>
+  <si>
+    <t>sudo apt-get install python3</t>
+  </si>
+  <si>
+    <t>sudo mount -t drvfs C: /mnt</t>
+  </si>
+  <si>
+    <t>sudo mount -t drvfs C: /mnt    това е команда при която се маунтва драив благодарение на който можем да отворим файл който искаме.</t>
+  </si>
+  <si>
+    <t>при уиндоус cmd</t>
+  </si>
+  <si>
+    <t>ipconfig /displaydns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ipconfig /displaydns   -&gt; тази команда позволява човек да вижда всички записани в кеша IP адреси на сайтове в които е влизал човек от съответният компютър като това е DNS мястото което се записва информацията за IP адреса на даден сайт. Ако го има там този сайт значи е влизано в сайта и компютъра вече знае точният IP адрес на сайта и процеса по търсенето и достъпването на сайта е по-бърз (в милисекунди) Единственият по-бърз начин на това е ако кеша на браузара има тази информация </t>
+  </si>
+  <si>
+    <t>ipconfig /flushdns</t>
+  </si>
+  <si>
+    <t>при уиндоус cmd   Важно</t>
+  </si>
+  <si>
+    <t>ipconfig /flushdns   -&gt; Тази команда изтрива DNS кеша който можем да видим с горната команда. Използва се ако се прави сайт и в процеса на работа е сменен сървъра на който е позициониран. С тази команда изтриваме кеша на DNS-а на компютъра и когато влезем в новия сайт ще се запише само новия IP адрес</t>
+  </si>
+  <si>
+    <t>ipconfig /all</t>
+  </si>
+  <si>
+    <t>ipconfig /all    -&gt; Тази команда показва пълна информация на локалната мрежа</t>
+  </si>
+  <si>
+    <t>Ethernet adapter Ethernet 2:  -&gt; Интернет адаптора (устройството на компютъра от което имаме връзка с интернет кабела където е Лан картата)
+   Connection-specific DNS Suffix  . :                                                          -&gt; използва се като допълнително информация за името на моят компютър в локална мрежа пример:Ако съм си писал компютъра(user) с името Георги Кирев и добавя Suffix = .com то ако някой от локалната мрежа в която съм потърси моят компютър ще му излезе = Георги Кирев.com ако пише Preffix този надпис ще е пред името = .comГеорги Кирев   Използва се за локални мрежи
+   Link-local IPv6 Address . . . . . : fe80::3674:69af:9a:ec28%13          -&gt; това е по-съвременният и по-сложен IP адрес
+   IPv4 Address. . . . . . . . . . . : 192.168.56.1                                                 -&gt; това е настоящият IP адрес
+   Subnet Mask . . . . . . . . . . . : 255.255.255.0                                             -&gt; това е метода за определяне на това колко мрежи може да се свържат с интернет и колко потребители/устройства като тези неща се променят спрямо нуждите !!! Не са фиксирани !!!
+   Default Gateway . . . . . . . . . :                                                                      -&gt; това е IP адреса на рутера с който искаш да се свържеш с интернет (входната/изходна врата към интернет) Ако го няма това вероятно гледаш устройство което директно не може да достъпи до интернет това устройство първо се свърза в рутер и тогава с интернет.Когато гледаш устройство с IP на тази позиция това е Рутера като над него в IPv4 Address това е IP-то на самият рутер</t>
+  </si>
+  <si>
+    <t>arp - a</t>
+  </si>
+  <si>
+    <t>arp - a    -&gt; показва IP адресите заедно с MAC адресите и типа им (на устройствата в локалната мрежа на компютъра от който пишем командата) показва ги първо IP после физикал адрес или MAC адреса и тип дали е статичен или динамичен този адрес като ако е динамична означава че връзката е временна или статична което означава ,че е постоянна  връзка</t>
+  </si>
+  <si>
+    <t>arp -d</t>
+  </si>
+  <si>
+    <t>arp -d   -&gt; при тази команда се трие кеша който държи данните на всички устройства с които се свързва компютъра изтрива IP адресите</t>
+  </si>
+  <si>
+    <t>при уиндоус cmd Важно</t>
+  </si>
+  <si>
+    <t>netstat -an</t>
+  </si>
+  <si>
+    <t>netstat -an  -&gt; показва всички портове на компютъра кои са свободни и Listening (слушат) показва и типа комуникация номерата на портовете</t>
+  </si>
+  <si>
+    <t>tracert</t>
+  </si>
+  <si>
+    <t>tracert   -&gt; показва пътят на информацията от нашият компютър до местото което искаме да достъпим и се попълва по следният начин: tracert google.com</t>
+  </si>
+  <si>
+    <t>node.js</t>
+  </si>
+  <si>
+    <t>среда за изпълнение</t>
+  </si>
+  <si>
+    <t>node.js    -&gt; Среда за изпълнение която работи извън браузъра при Джава Скрипт код на "сървар"</t>
+  </si>
+  <si>
+    <t>CRUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL </t>
+  </si>
+  <si>
+    <t>CRUD -&gt; операции това е съкращение от Create/Read/Update/Delete data</t>
+  </si>
+  <si>
+    <t>queries</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>queries -&gt; означава Заявка . Заявките се използват за търсене и филтриране на информация от базата данни пишат се на SQL език</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>json -&gt; JavaScript Object Notation Това е формат на Джава скрипт много лек и много използван.Базови неща за този формат винаги е структуриран {kеy : value} или примерно "first_name" : "Svetlin"   друг пример "age" : 30   Винаги текста е в двойни кавички  "текст" а key-а е текст,цифрите и булевите стойности без никакви знаци а масивите са с квадратни скоби отделени с запетая един от друг  [ 5, 100, true , "Georgi", "Petko"] Отделни обекти в този формат започват и завършват с къдрави скобички { "firt_name" : "Georgi" , "Last_Name" : "Kirev", "age" : 30}</t>
+  </si>
+  <si>
+    <t>да намеря и да си запиша информацията за интерпретирани и не интерпретирани езици за програмиране</t>
+  </si>
+  <si>
+    <t>https://mongoplayground.net/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">да направя упражнения на джава скрипт понеже json е с него и може да го имам на изпита препоръчително да се свали и тества този сайт </t>
+  </si>
+  <si>
+    <t>nslookup</t>
+  </si>
+  <si>
+    <t>nslookup показва IP адреса, името на даден сайт пример nslookup youtube.com   Командата става и за уиндоус.</t>
+  </si>
+  <si>
+    <t>Linux command/Windows</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,6 +870,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -479,10 +914,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -503,8 +939,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -783,10 +1232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,8 +1816,726 @@
         <v>116</v>
       </c>
     </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+    </row>
+    <row r="67" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+    </row>
+    <row r="97" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+    </row>
+    <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A65:C66"/>
+    <mergeCell ref="A96:C96"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C145" r:id="rId1" xr:uid="{E7825C43-2955-45B5-A97D-8B9B8C96590D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/QAManualЗаписки.xlsx
+++ b/QAManualЗаписки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georgi Kirev\Desktop\IT All\QualityAssurance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CE030F-9BC5-464D-905F-7B9CB7358E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124A8EA8-D666-47C8-A322-F7ED8EF6A60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="290">
   <si>
     <t>QA</t>
   </si>
@@ -846,6 +846,87 @@
   </si>
   <si>
     <t>Linux command/Windows</t>
+  </si>
+  <si>
+    <t>SCM</t>
+  </si>
+  <si>
+    <t>Software Configuration Management</t>
+  </si>
+  <si>
+    <t>Софтуер за менажиране на софтуерните конфигурации. Можеш да промениш коя верция използва човек в момента на дадено приложение (може да върне към по-стара версия която е работеща и така да се разбере как е била като е работила добре)</t>
+  </si>
+  <si>
+    <t>GIT COMMANDS</t>
+  </si>
+  <si>
+    <t>git clone [remote url]</t>
+  </si>
+  <si>
+    <t>Cloning an existing Git repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git clone [ remote url] - Е команда при Git при която се клонира обичайно репозиторито над това което се работи (проекта от фирмата над който се работи) като URL-а се дава от фирмата </t>
+  </si>
+  <si>
+    <t>git pull</t>
+  </si>
+  <si>
+    <t>Fetch and merge the latest changes from remote repository</t>
+  </si>
+  <si>
+    <t>git pull - Е команда при която се сваля последните промени направени по проекта над който се работи за да сме сигурни ,че започваме работният ден или процес при най-новата версия на продукта над който работим</t>
+  </si>
+  <si>
+    <t>git add [file name] (" git add ." adds everything )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preparing (adding/ selecting) files from a commit </t>
+  </si>
+  <si>
+    <t>git add [file name] (" git add ." adds everything ) - това е команда при която добавя определен файл към настоящото репозитори</t>
+  </si>
+  <si>
+    <t>git commit -m "[your message here]"</t>
+  </si>
+  <si>
+    <t>Commiting to the local repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git commit -m "[your message here]" - при тази команда записваме информация и заглавие за дадени промени които сме направили примерно Тест функционалност Login и описваме: Резултати от тестовете на Login бутона </t>
+  </si>
+  <si>
+    <t>git status</t>
+  </si>
+  <si>
+    <t>Check the status of your local repository</t>
+  </si>
+  <si>
+    <t>git status - Дава ясна информация на настоящият статус на нашето хранилище в кой бранч сме в момента , има ли незаписани промени има ли промени които са подготвени за запис но не са все още и много други</t>
+  </si>
+  <si>
+    <t>git init</t>
+  </si>
+  <si>
+    <t>Creating a new local repository(in the current directory)</t>
+  </si>
+  <si>
+    <t>git init - създаваме ново репозитори (папка) в настоящата директория</t>
+  </si>
+  <si>
+    <t>git remote add [remote name] [remote url]</t>
+  </si>
+  <si>
+    <t>Creating a remote (assign a short name for remote Git URL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pushing to a remote </t>
+  </si>
+  <si>
+    <t>git push [remote name] [local name]</t>
+  </si>
+  <si>
+    <t>git remote add [remote name] [remote url] - Тази команда свързва лока лното с отдалеченото гит хранилища (като ни позволява да напишем кратко и ясно име за иначе дългият URL .</t>
   </si>
 </sst>
 </file>
@@ -1232,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:C156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2521,9 +2602,116 @@
         <v>259</v>
       </c>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C145" s="9" t="s">
         <v>258</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/QAManualЗаписки.xlsx
+++ b/QAManualЗаписки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georgi Kirev\Desktop\IT All\QualityAssurance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124A8EA8-D666-47C8-A322-F7ED8EF6A60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCCF937-E15D-4120-BDC7-27467224207F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="295">
   <si>
     <t>QA</t>
   </si>
@@ -253,9 +253,6 @@
   </si>
   <si>
     <t>Струпване на дефекти. Defect clustering. Дефектите се струпват на едно место там където се намери един бъг е 80% вериятност да има и втори бъг там.</t>
-  </si>
-  <si>
-    <t>Парадокса на пестицидите.Pesticide paradox. С времето повтарянето на едни и същи тестове с времето откриват все по-малко грешки.Трябва да се преглеждат и подобряват редовно тестовете.Понеже с времето разработчиците изчистват старите бъгове и метода скойто сме ги намерили вече няма да е ефективен но това не означава ,че няма бъгове.</t>
   </si>
   <si>
     <t>Тестването зависи от контекста.Testing is context dependent. Различните приложения, сайтове и игри искат различни подходи за тестване.Тестването на симулатор на отглеждане на разстения ще се тества по-различен начин от състезателен симулатор.</t>
@@ -830,9 +827,6 @@
     <t>json -&gt; JavaScript Object Notation Това е формат на Джава скрипт много лек и много използван.Базови неща за този формат винаги е структуриран {kеy : value} или примерно "first_name" : "Svetlin"   друг пример "age" : 30   Винаги текста е в двойни кавички  "текст" а key-а е текст,цифрите и булевите стойности без никакви знаци а масивите са с квадратни скоби отделени с запетая един от друг  [ 5, 100, true , "Georgi", "Petko"] Отделни обекти в този формат започват и завършват с къдрави скобички { "firt_name" : "Georgi" , "Last_Name" : "Kirev", "age" : 30}</t>
   </si>
   <si>
-    <t>да намеря и да си запиша информацията за интерпретирани и не интерпретирани езици за програмиране</t>
-  </si>
-  <si>
     <t>https://mongoplayground.net/</t>
   </si>
   <si>
@@ -927,6 +921,27 @@
   </si>
   <si>
     <t>git remote add [remote name] [remote url] - Тази команда свързва лока лното с отдалеченото гит хранилища (като ни позволява да напишем кратко и ясно име за иначе дългият URL .</t>
+  </si>
+  <si>
+    <t>Интерпретиран език</t>
+  </si>
+  <si>
+    <t>При интерпретираните езици програмата се изпълнява ред по ред от специална програма наречена Интерпретатор (interpreter) и няма нужда програмата предварително да се компилира в машинен код (да стане четима за компютрите). Езици с интерпретиране : Phyton , JavaScript , PHP , Ruby , Bash , Perl</t>
+  </si>
+  <si>
+    <t>Interpreting language</t>
+  </si>
+  <si>
+    <t>Компилиран език</t>
+  </si>
+  <si>
+    <t>Compiled language</t>
+  </si>
+  <si>
+    <t>Програмата първо се компилира -&gt; превръща се цялата в машинен код от компютър, след това се създава изпълним файл (.exe .class .dll) който може да се стартира директно без компИлатор. Езици с компилиран език : C , C++ , C# , Java (той е комбиниран първо се компилира в bytecode , после се интерпретира в JVM) , Go , Swift , Rust</t>
+  </si>
+  <si>
+    <t>Парадокса на пестицидите.Pesticide paradox. С повтарянето на едни и същи тестове с времето се откриват все по-малко грешки.Трябва да се преглеждат и подобряват редовно тестовете.Понеже с времето разработчиците изчистват старите бъгове и метода скойто сме ги намерили вече няма да е ефективен но това не означава ,че няма бъгове.</t>
   </si>
 </sst>
 </file>
@@ -1315,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,7 +1431,7 @@
         <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>76</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1427,7 +1442,7 @@
         <v>70</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1438,7 +1453,7 @@
         <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1504,7 +1519,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1546,21 +1561,21 @@
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1613,10 +1628,10 @@
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1702,35 +1717,35 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1739,78 +1754,78 @@
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C42" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1819,87 +1834,87 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -1911,306 +1926,306 @@
     </row>
     <row r="67" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C71" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
     </row>
     <row r="97" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B97" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B97" s="8" t="s">
-        <v>188</v>
-      </c>
       <c r="C97" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B98" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="C98" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B99" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="C99" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2220,498 +2235,515 @@
     </row>
     <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="C101" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="C109" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="C123" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="C127" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="C134" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="C136" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="C137" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="C139" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="1" t="s">
-        <v>257</v>
+    </row>
+    <row r="141" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C144" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C145" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C153" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/QAManualЗаписки.xlsx
+++ b/QAManualЗаписки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georgi Kirev\Desktop\IT All\QualityAssurance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCCF937-E15D-4120-BDC7-27467224207F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BB0B23-7B46-4DEE-9CDF-C65C4A49CF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="316">
   <si>
     <t>QA</t>
   </si>
@@ -881,15 +881,9 @@
     <t>git add [file name] (" git add ." adds everything ) - това е команда при която добавя определен файл към настоящото репозитори</t>
   </si>
   <si>
-    <t>git commit -m "[your message here]"</t>
-  </si>
-  <si>
     <t>Commiting to the local repository</t>
   </si>
   <si>
-    <t xml:space="preserve">git commit -m "[your message here]" - при тази команда записваме информация и заглавие за дадени промени които сме направили примерно Тест функционалност Login и описваме: Резултати от тестовете на Login бутона </t>
-  </si>
-  <si>
     <t>git status</t>
   </si>
   <si>
@@ -942,6 +936,75 @@
   </si>
   <si>
     <t>Парадокса на пестицидите.Pesticide paradox. С повтарянето на едни и същи тестове с времето се откриват все по-малко грешки.Трябва да се преглеждат и подобряват редовно тестовете.Понеже с времето разработчиците изчистват старите бъгове и метода скойто сме ги намерили вече няма да е ефективен но това не означава ,че няма бъгове.</t>
+  </si>
+  <si>
+    <t>git config --list</t>
+  </si>
+  <si>
+    <t>git config --list    -&gt; тази команда показва как е конфигуриран гит към момента</t>
+  </si>
+  <si>
+    <t>git -v</t>
+  </si>
+  <si>
+    <t>git -v   -&gt; тази команда позволява да видим коя версия е гит на нашият компютър, ако няма информация то ние нямаме git</t>
+  </si>
+  <si>
+    <t>git push</t>
+  </si>
+  <si>
+    <t>Pushing to a remote without specifying file name</t>
+  </si>
+  <si>
+    <t>git push  -&gt; при тази команда се качва всичко което е комитнато с горната комадна директно в репозиторито тоест може да е 1 файл може и да са много ,по-долу има команда с която може да пушнем само определен файл и до определено репозитори</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git commit -m "your message here" - при тази команда записваме заглавие за дадени промени които сме направили примерно Тест функционалност Login и описваме: Резултати от тестовете на Login бутона </t>
+  </si>
+  <si>
+    <t>git commit -m "your message here"</t>
+  </si>
+  <si>
+    <t>git commit -m "Title of changes" -m "description"      -&gt; при тази команда първо пишем заглавието на комита който правим а на второто описанието какво сме правили</t>
+  </si>
+  <si>
+    <t>git commit -m "Title of change" -m "description"</t>
+  </si>
+  <si>
+    <t>Commiting to the local repository with description</t>
+  </si>
+  <si>
+    <t>10-те най-използвани команди в GIT Bash</t>
+  </si>
+  <si>
+    <t>git add .                                -&gt; Добавя всички промени за следващия commit</t>
+  </si>
+  <si>
+    <t>git commit -m "msg"      -&gt; Създава commit с кратко съобщение</t>
+  </si>
+  <si>
+    <t>git status                              -&gt; Показва статуса на репозиторито (променени, добавени, непроследявани)</t>
+  </si>
+  <si>
+    <t>git push                                -&gt; Качва локалните commit-и в remote (GitHub)</t>
+  </si>
+  <si>
+    <t>git pull                                  -&gt; Изтегля и слива последните промени от remote</t>
+  </si>
+  <si>
+    <t>git checkout -b name     -&gt; Създава и превключва към нов branch</t>
+  </si>
+  <si>
+    <t>git switch main                 -&gt; Превключва към branch "main" (или master)</t>
+  </si>
+  <si>
+    <t>git log --oneline              -&gt; Показва историята на commit-ите в 1 ред</t>
+  </si>
+  <si>
+    <t>git branch -a                      -&gt; Показва всички локални и remote branch-ове</t>
+  </si>
+  <si>
+    <t>git stash                              -&gt; Запазва временно промените (без commit)</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1077,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1046,6 +1109,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1328,10 +1394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C156"/>
+  <dimension ref="A1:C172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A174" sqref="A174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,7 +1497,7 @@
         <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2609,24 +2675,24 @@
     </row>
     <row r="141" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2658,98 +2724,230 @@
         <v>264</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B151" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C151" s="1" t="s">
         <v>267</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C159" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C156" s="3" t="s">
-        <v>286</v>
-      </c>
+    </row>
+    <row r="160" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B162" s="11"/>
+      <c r="C162" s="11"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B163" s="12"/>
+      <c r="C163" s="12"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B164" s="12"/>
+      <c r="C164" s="12"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B165" s="12"/>
+      <c r="C165" s="12"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="B166" s="12"/>
+      <c r="C166" s="12"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="B167" s="12"/>
+      <c r="C167" s="12"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="B168" s="12"/>
+      <c r="C168" s="12"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="B169" s="12"/>
+      <c r="C169" s="12"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="B170" s="12"/>
+      <c r="C170" s="12"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="B171" s="12"/>
+      <c r="C171" s="12"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B172" s="12"/>
+      <c r="C172" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="13">
     <mergeCell ref="A65:C66"/>
     <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="A165:C165"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A167:C167"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="A172:C172"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/QAManualЗаписки.xlsx
+++ b/QAManualЗаписки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georgi Kirev\Desktop\IT All\QualityAssurance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BB0B23-7B46-4DEE-9CDF-C65C4A49CF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93956EE-8D81-42C3-AE81-9EAF59DC972A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="319">
   <si>
     <t>QA</t>
   </si>
@@ -1005,6 +1005,15 @@
   </si>
   <si>
     <t>git stash                              -&gt; Запазва временно промените (без commit)</t>
+  </si>
+  <si>
+    <t>сайт за калкулация</t>
+  </si>
+  <si>
+    <t>Използва се за да се елиминира повторно правене на тест кейсове</t>
+  </si>
+  <si>
+    <t>https://pairwise.teremokgames.com/</t>
   </si>
 </sst>
 </file>
@@ -1394,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C172"/>
+  <dimension ref="A1:C174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A174" sqref="A174"/>
+    <sheetView tabSelected="1" topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A175" sqref="A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2933,21 +2942,32 @@
       <c r="B172" s="12"/>
       <c r="C172" s="12"/>
     </row>
+    <row r="174" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="A165:C165"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A167:C167"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="A169:C169"/>
     <mergeCell ref="A65:C66"/>
     <mergeCell ref="A96:C96"/>
     <mergeCell ref="A162:C162"/>
     <mergeCell ref="A163:C163"/>
     <mergeCell ref="A164:C164"/>
-    <mergeCell ref="A165:C165"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A167:C167"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="A171:C171"/>
-    <mergeCell ref="A172:C172"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
